--- a/data/Gates_18_MALDI_Tissue Laser Capture R_liz_edit.xlsx
+++ b/data/Gates_18_MALDI_Tissue Laser Capture R_liz_edit.xlsx
@@ -561,7 +561,7 @@
   <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,15 +2222,13 @@
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="8">
-        <v>39</v>
-      </c>
+      <c r="B45" s="8"/>
       <c r="C45" s="15"/>
       <c r="D45" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="7" t="s">
@@ -2240,16 +2238,16 @@
         <v>16</v>
       </c>
       <c r="I45" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="9">
-        <v>5720</v>
+        <v>29</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="3" t="s">
@@ -2261,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="8" t="s">
@@ -2284,10 +2282,10 @@
         <v>34</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L46" s="9">
-        <v>2440</v>
+        <v>5720</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="3" t="s">
@@ -2298,7 +2296,9 @@
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="8">
+        <v>40</v>
+      </c>
       <c r="C47" s="15"/>
       <c r="D47" s="8" t="s">
         <v>19</v>
@@ -2320,10 +2320,10 @@
         <v>34</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="L47" s="9">
+        <v>2440</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="3" t="s">
